--- a/materials/exp_lists/session_2_3.xlsx
+++ b/materials/exp_lists/session_2_3.xlsx
@@ -512,7 +512,7 @@
     <t>tuvene = руль?</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>enkene.wav</t>
@@ -527,10 +527,10 @@
     <t>ekiste = светофор?</t>
   </si>
   <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = карман?</t>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = карман?</t>
   </si>
   <si>
     <t>tekuru.wav</t>
